--- a/BackTest/2020-01-16 BackTest PLY.xlsx
+++ b/BackTest/2020-01-16 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,7 +715,7 @@
         <v>4119614.854047094</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>4119614.854047094</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>4124898.733347095</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>4077187.563547095</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>4233852.573147095</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>4233852.573147095</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>4297258.221847095</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>4296040.537247094</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>4292888.273647094</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>4293008.273647094</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>3749027.044547094</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>3795897.068847094</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>3113485.373447094</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>3113485.373447094</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>3269647.704947094</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>3269770.704947094</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>3198534.699947094</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>3198689.273547094</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>3093300.028718669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>3027390.427018669</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2878337.326718669</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>2878337.326718669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>2878460.326718669</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>2778460.326718669</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2778708.228618669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>2696306.505918669</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2721325.152018669</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2722068.144018669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2761728.144018669</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2915338.144018669</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2963976.276218669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>1929510.160218669</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>1929510.160218669</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>1929752.160218669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>1929752.160218669</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2050872.160218669</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2071985.284118669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>2071985.284118669</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>2220352.877718669</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1384070.255218669</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>912908.9125186694</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>889072.1666186694</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -4708,17 +4708,11 @@
         <v>-12885107.17219743</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>3.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4747,17 +4741,11 @@
         <v>-12893697.17219743</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>3.857</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4786,17 +4774,11 @@
         <v>-12893697.17219743</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>3.621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4825,17 +4807,11 @@
         <v>-12886697.17219743</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>3.621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4864,17 +4840,11 @@
         <v>-12943515.35399743</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3.657</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4903,17 +4873,11 @@
         <v>-12805415.64999743</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>3.611</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4942,17 +4906,15 @@
         <v>-12793459.35909743</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>3.67</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4981,15 +4943,17 @@
         <v>-11743209.07019743</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>3.687</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3.67</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -5020,15 +4984,17 @@
         <v>-11323862.24227409</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>3.836</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3.67</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -5059,17 +5025,11 @@
         <v>-11323202.3445564</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5102,11 +5062,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5139,11 +5095,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5176,11 +5128,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5213,11 +5161,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5250,11 +5194,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5287,11 +5227,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5324,11 +5260,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5361,11 +5293,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5398,11 +5326,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5435,11 +5359,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5472,11 +5392,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5509,11 +5425,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5546,11 +5458,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5579,15 +5487,15 @@
         <v>-17022388.87366322</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="J154" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5619,10 +5527,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>3.76</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -5656,10 +5566,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>3.76</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5694,11 +5606,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5639,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5768,11 +5672,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5805,11 +5705,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5842,11 +5738,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5879,11 +5771,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5912,15 +5800,15 @@
         <v>-17656164.30236322</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="J163" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5949,13 +5837,17 @@
         <v>-17407400.88366323</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="J164" t="n">
+        <v>3.71</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L164" t="n">
@@ -5989,10 +5881,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3.71</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L165" t="n">
@@ -6027,11 +5921,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6064,11 +5954,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6101,11 +5987,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6138,11 +6020,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6175,11 +6053,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6212,11 +6086,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6245,13 +6115,15 @@
         <v>-18310661.20346323</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3.791</v>
+      </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L172" t="n">
@@ -6282,9 +6154,11 @@
         <v>-18438888.00486322</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3.791</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6319,9 +6193,11 @@
         <v>-18439122.92556322</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3.781</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6356,9 +6232,11 @@
         <v>-18439594.10766323</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>3.78</v>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6393,9 +6271,11 @@
         <v>-18439594.10766323</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3.74</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6430,9 +6310,11 @@
         <v>-18439461.10766323</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>3.74</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6467,9 +6349,11 @@
         <v>-18539090.17026323</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>3.771</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6504,9 +6388,11 @@
         <v>-17887955.67336323</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>3.73</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -6541,9 +6427,11 @@
         <v>-18846814.62506323</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>3.732</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6578,9 +6466,11 @@
         <v>-18846814.62506323</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3.73</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6615,9 +6505,11 @@
         <v>-18846814.62506323</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3.73</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -6652,9 +6544,11 @@
         <v>-18776814.62506323</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>3.73</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -6689,9 +6583,11 @@
         <v>-18776814.62506323</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>3.78</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -6726,9 +6622,11 @@
         <v>-18776814.62506323</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3.78</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -6763,9 +6661,11 @@
         <v>-18776814.62506323</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3.78</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -6800,9 +6700,11 @@
         <v>-18764897.44516322</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3.78</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -6837,9 +6739,11 @@
         <v>-18764897.44516322</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3.793</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -6874,9 +6778,11 @@
         <v>-18663102.84957039</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3.793</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -6911,9 +6817,11 @@
         <v>-18665245.98807039</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>3.964</v>
+      </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7170,9 +7078,11 @@
         <v>-18400084.30397039</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>3.88</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7207,9 +7117,11 @@
         <v>-18392454.30397039</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>3.795</v>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -8206,9 +8118,11 @@
         <v>-18632584.32896322</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>3.882</v>
+      </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -8243,9 +8157,11 @@
         <v>-18647633.87366322</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>3.882</v>
+      </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -8280,9 +8196,11 @@
         <v>-18888577.27566322</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>3.879</v>
+      </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -8354,9 +8272,11 @@
         <v>-18888577.27566322</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>3.851</v>
+      </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8428,9 +8348,11 @@
         <v>-19279485.50756322</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>3.81</v>
+      </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8465,9 +8387,11 @@
         <v>-19352442.39756322</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>3.882</v>
+      </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8502,9 +8426,11 @@
         <v>-19352183.37694467</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>3.871</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8539,9 +8465,11 @@
         <v>-18904021.35414467</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>3.88</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8576,9 +8504,11 @@
         <v>-18904021.35414467</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>3.882</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -8613,9 +8543,11 @@
         <v>-18904021.35414467</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>3.882</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -8650,9 +8582,11 @@
         <v>-18899554.77514467</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>3.882</v>
+      </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -8724,9 +8658,11 @@
         <v>-18888267.47594467</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>3.895</v>
+      </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -9427,9 +9363,11 @@
         <v>-18322596.62044467</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>3.91</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9464,9 +9402,11 @@
         <v>-18322596.62044467</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>3.9</v>
+      </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -9501,9 +9441,11 @@
         <v>-18322596.62044467</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>3.9</v>
+      </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -9538,9 +9480,11 @@
         <v>-18322596.62044467</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>3.9</v>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -9575,9 +9519,11 @@
         <v>-18322596.62044467</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>3.9</v>
+      </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -9797,9 +9743,11 @@
         <v>-17559579.78814467</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>3.895</v>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -10019,9 +9967,11 @@
         <v>-21435976.08424466</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>3.84</v>
+      </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -10130,9 +10080,11 @@
         <v>-21702734.40724466</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>3.83</v>
+      </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -10167,7 +10119,7 @@
         <v>-21702734.40724466</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>3.841</v>
@@ -10206,9 +10158,11 @@
         <v>-21702734.40724466</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>3.841</v>
+      </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -10243,7 +10197,7 @@
         <v>-21702734.40724466</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>3.841</v>
@@ -10282,7 +10236,7 @@
         <v>-21702734.40724466</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>3.841</v>
@@ -10321,7 +10275,7 @@
         <v>-21930932.85574466</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>3.841</v>
@@ -10360,9 +10314,11 @@
         <v>-21930932.85574466</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>3.84</v>
+      </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10397,9 +10353,11 @@
         <v>-21968891.31014466</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>3.84</v>
+      </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -10434,9 +10392,11 @@
         <v>-21968891.31014466</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>3.834</v>
+      </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10471,7 +10431,7 @@
         <v>-21968891.31014466</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>3.834</v>
@@ -10510,7 +10470,7 @@
         <v>-21362659.04284466</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>3.834</v>
@@ -10549,7 +10509,7 @@
         <v>-21362659.04284466</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>3.862</v>
@@ -10588,7 +10548,7 @@
         <v>-21362494.81124466</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>3.862</v>
@@ -10627,7 +10587,7 @@
         <v>-21364632.49664466</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>3.899</v>
@@ -10666,9 +10626,11 @@
         <v>-21364632.49664466</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>3.863</v>
+      </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -10703,7 +10665,7 @@
         <v>-21310632.49664466</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>3.863</v>
@@ -10779,9 +10741,11 @@
         <v>-21310632.49664466</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>3.899</v>
+      </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -10816,7 +10780,7 @@
         <v>-21282946.87914466</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>3.899</v>
@@ -10855,11 +10819,9 @@
         <v>-21279994.35224466</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>3.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10894,9 +10856,11 @@
         <v>-21276222.41284467</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>3.921</v>
+      </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10968,9 +10932,11 @@
         <v>-21269087.92384467</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>3.944</v>
+      </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -11005,9 +10971,11 @@
         <v>-21269087.92384467</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>3.944</v>
+      </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -11042,9 +11010,11 @@
         <v>-21292631.46244467</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>3.944</v>
+      </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -11079,9 +11049,11 @@
         <v>-21292631.46244467</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>3.921</v>
+      </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -11116,7 +11088,7 @@
         <v>-21292503.46244467</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>3.921</v>
@@ -11155,7 +11127,7 @@
         <v>-21311731.50014467</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>3.956</v>
@@ -11194,7 +11166,7 @@
         <v>-21311731.50014467</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>3.911</v>
@@ -11233,7 +11205,7 @@
         <v>-21294071.05974467</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>3.911</v>
@@ -11272,7 +11244,7 @@
         <v>-21274448.34814467</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>3.915</v>
@@ -11311,11 +11283,9 @@
         <v>-21274448.34814467</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
-      </c>
-      <c r="I308" t="n">
-        <v>3.955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -11350,7 +11320,7 @@
         <v>-20733197.21880632</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>3.955</v>
@@ -11389,7 +11359,7 @@
         <v>-20770697.32810632</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>4</v>
@@ -11428,7 +11398,7 @@
         <v>-20770697.32810632</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>3.99</v>
@@ -11467,11 +11437,9 @@
         <v>-20770697.32810632</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>3.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -11506,11 +11474,9 @@
         <v>-20694427.32290632</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
-      </c>
-      <c r="I313" t="n">
-        <v>3.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -11545,11 +11511,9 @@
         <v>-20629595.60380632</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>3.995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -11584,7 +11548,7 @@
         <v>-20750877.20980632</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>3.999</v>
@@ -11623,7 +11587,7 @@
         <v>-20715708.92890632</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>3.95</v>
@@ -11662,7 +11626,7 @@
         <v>-20683290.20380632</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>3.999</v>
@@ -11701,7 +11665,7 @@
         <v>-20683290.20380632</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>4</v>
@@ -11740,7 +11704,7 @@
         <v>-20684747.85090632</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>4</v>
@@ -11779,7 +11743,7 @@
         <v>-20684747.85090632</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>3.999</v>
@@ -11818,7 +11782,7 @@
         <v>-20684747.85090632</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>3.999</v>
@@ -11857,7 +11821,7 @@
         <v>-20707726.00600632</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>3.999</v>
@@ -11896,7 +11860,7 @@
         <v>-20707596.00600632</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>3.95</v>
@@ -11935,7 +11899,7 @@
         <v>-20732965.24030632</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>3.999</v>
@@ -11974,7 +11938,7 @@
         <v>-20732965.24030632</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>3.945</v>
@@ -12013,7 +11977,7 @@
         <v>-20732965.24030632</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>3.945</v>
@@ -12052,7 +12016,7 @@
         <v>-20732965.24030632</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>3.945</v>
@@ -12091,7 +12055,7 @@
         <v>-20733134.49070632</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>3.945</v>
@@ -12130,7 +12094,7 @@
         <v>-20733004.49070632</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>3.935</v>
@@ -12169,7 +12133,7 @@
         <v>-20735790.75260632</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>3.989</v>
@@ -12208,7 +12172,7 @@
         <v>-20898513.96680632</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>3.925</v>
@@ -12247,7 +12211,7 @@
         <v>-23481983.98330632</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>3.92</v>
@@ -12286,7 +12250,7 @@
         <v>-23481983.98330632</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>3.915</v>
@@ -12325,7 +12289,7 @@
         <v>-23481983.98330632</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>3.915</v>
@@ -12364,7 +12328,7 @@
         <v>-23481853.98330632</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>3.915</v>
@@ -12403,7 +12367,7 @@
         <v>-23617631.98330632</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>3.954</v>
@@ -12442,7 +12406,7 @@
         <v>-23689682.74040632</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>3.915</v>
@@ -12481,7 +12445,7 @@
         <v>-23677653.94030632</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>3.873</v>
@@ -12520,7 +12484,7 @@
         <v>-23537743.81920632</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>3.881</v>
@@ -12559,7 +12523,7 @@
         <v>-23533794.08390632</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>3.885</v>
@@ -12598,7 +12562,7 @@
         <v>-23533794.08390632</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>3.921</v>
@@ -12637,7 +12601,7 @@
         <v>-23533794.08390632</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>3.921</v>
@@ -12676,7 +12640,7 @@
         <v>-25752864.47640632</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>3.921</v>
@@ -12715,7 +12679,7 @@
         <v>-25752864.47640632</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>3.873</v>
@@ -12754,7 +12718,7 @@
         <v>-25752864.47640632</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>3.873</v>
@@ -12793,7 +12757,7 @@
         <v>-25678057.98390632</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>3.873</v>
@@ -12832,7 +12796,7 @@
         <v>-25715457.98390632</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>3.933</v>
@@ -12871,7 +12835,7 @@
         <v>-25715457.98390632</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>3.885</v>
@@ -12910,7 +12874,7 @@
         <v>-25715329.98390632</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>3.885</v>
@@ -12949,9 +12913,11 @@
         <v>-25717545.84690632</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>3.923</v>
+      </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -12986,9 +12952,11 @@
         <v>-25588992.36710632</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>3.885</v>
+      </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -13023,7 +12991,7 @@
         <v>-25588992.36710632</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>3.933</v>
@@ -13062,7 +13030,7 @@
         <v>-25588992.36710632</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>3.933</v>
@@ -13101,7 +13069,7 @@
         <v>-25588992.36710632</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>3.933</v>
@@ -13140,7 +13108,7 @@
         <v>-25312282.76500632</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>3.933</v>
@@ -13179,7 +13147,7 @@
         <v>-24930015.38879124</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>3.94</v>
@@ -13218,7 +13186,7 @@
         <v>-24986743.01789124</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>3.997</v>
@@ -13257,7 +13225,7 @@
         <v>-24997986.10299123</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>3.987</v>
@@ -13296,7 +13264,7 @@
         <v>-24954597.30010632</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>3.95</v>
@@ -13335,7 +13303,7 @@
         <v>-24954597.30010632</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>3.997</v>
@@ -13374,7 +13342,7 @@
         <v>-17941887.30010632</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>3.997</v>
@@ -13413,11 +13381,9 @@
         <v>-15725899.42575976</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -14377,16 +14343,18 @@
         <v>9271669.567745443</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L388" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
       <c r="M388" t="inlineStr"/>
     </row>
     <row r="389">
@@ -14416,7 +14384,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14449,7 +14421,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14482,7 +14458,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14511,14 +14491,16 @@
         <v>9116108.584045444</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="inlineStr"/>
     </row>
     <row r="393">
@@ -14643,7 +14625,7 @@
         <v>8736270.11329951</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14676,7 +14658,7 @@
         <v>8856411.93009951</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14709,7 +14691,7 @@
         <v>8509659.328599509</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14742,7 +14724,7 @@
         <v>8475249.813399509</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14775,7 +14757,7 @@
         <v>8608078.117199508</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14808,7 +14790,7 @@
         <v>8611873.117199508</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14841,7 +14823,7 @@
         <v>9289918.964199508</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14874,7 +14856,7 @@
         <v>9289918.964199508</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14907,7 +14889,7 @@
         <v>9269528.334099507</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14940,7 +14922,7 @@
         <v>9030803.062299507</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14973,7 +14955,7 @@
         <v>7997007.267699507</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15006,7 +14988,7 @@
         <v>8052007.267699507</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15039,7 +15021,7 @@
         <v>7009520.600899507</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15072,7 +15054,7 @@
         <v>7009520.600899507</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15105,7 +15087,7 @@
         <v>7624932.083499507</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15138,7 +15120,7 @@
         <v>5775638.432699507</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15171,7 +15153,7 @@
         <v>5706096.442499507</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15204,7 +15186,7 @@
         <v>6180241.470299507</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15237,7 +15219,7 @@
         <v>6190353.578499507</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15270,7 +15252,7 @@
         <v>6244061.402399507</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15303,7 +15285,7 @@
         <v>6264061.402399507</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15336,7 +15318,7 @@
         <v>6163849.406899507</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15369,7 +15351,7 @@
         <v>6163849.406899507</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15435,7 +15417,7 @@
         <v>6330353.548599508</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15468,7 +15450,7 @@
         <v>6330231.548599508</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15501,7 +15483,7 @@
         <v>6330351.548599508</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15534,7 +15516,7 @@
         <v>6277090.110599508</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15567,7 +15549,7 @@
         <v>6268814.622899507</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15666,7 +15648,7 @@
         <v>6174528.316699507</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15699,7 +15681,7 @@
         <v>6174528.316699507</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15732,7 +15714,7 @@
         <v>6174650.316699507</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15765,7 +15747,7 @@
         <v>6074431.764299506</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15798,7 +15780,7 @@
         <v>6284745.821799506</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15831,7 +15813,7 @@
         <v>6219745.821799506</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15864,7 +15846,7 @@
         <v>6219745.821799506</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15897,7 +15879,7 @@
         <v>6219745.821799506</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15930,7 +15912,7 @@
         <v>6219745.821799506</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15963,7 +15945,7 @@
         <v>6272115.290699506</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15996,7 +15978,7 @@
         <v>6272115.290699506</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16029,7 +16011,7 @@
         <v>6250977.279499507</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16062,7 +16044,7 @@
         <v>6252201.711099506</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16095,7 +16077,7 @@
         <v>6271191.518899506</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16128,7 +16110,7 @@
         <v>7464036.288499506</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16161,7 +16143,7 @@
         <v>7485218.361699507</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16194,7 +16176,7 @@
         <v>7443976.033199507</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16227,7 +16209,7 @@
         <v>7501540.230299507</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16260,7 +16242,7 @@
         <v>7719695.373599507</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16293,7 +16275,7 @@
         <v>7719695.373599507</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16623,7 +16605,7 @@
         <v>7688275.897599508</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16656,7 +16638,7 @@
         <v>7688275.897599508</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16689,7 +16671,7 @@
         <v>7717949.420599508</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16722,7 +16704,7 @@
         <v>7355558.778799508</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16755,7 +16737,7 @@
         <v>7355558.778799508</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16788,7 +16770,7 @@
         <v>7370506.708299507</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16821,7 +16803,7 @@
         <v>7370040.945299507</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16854,7 +16836,7 @@
         <v>7355981.748799508</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16887,7 +16869,7 @@
         <v>7271579.146799508</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16920,7 +16902,7 @@
         <v>7257158.461799508</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16953,7 +16935,7 @@
         <v>7098454.638999508</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16986,7 +16968,7 @@
         <v>6729323.112299507</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17019,7 +17001,7 @@
         <v>6798017.250599507</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17052,7 +17034,7 @@
         <v>6798017.250599507</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17085,7 +17067,7 @@
         <v>6798137.250599507</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17118,7 +17100,7 @@
         <v>6798137.250599507</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17151,7 +17133,7 @@
         <v>6798137.250599507</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17184,7 +17166,7 @@
         <v>6775167.884699508</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17217,7 +17199,7 @@
         <v>6776005.358799508</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17250,7 +17232,7 @@
         <v>6776005.358799508</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17283,7 +17265,7 @@
         <v>6484887.144099507</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17316,7 +17298,7 @@
         <v>6485724.618199508</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17349,7 +17331,7 @@
         <v>6485724.618199508</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17393,6 +17375,6 @@
       <c r="M479" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest PLY.xlsx
+++ b/BackTest/2020-01-16 BackTest PLY.xlsx
@@ -451,7 +451,7 @@
         <v>3138526.917147095</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3137793.116347095</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>3135454.860447095</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>3135454.860447095</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>4069768.539147095</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>4069768.539147095</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>4233852.573147095</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>4233852.573147095</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>3198534.699947094</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>786528.8423558334</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>786528.8423558334</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>786528.8423558334</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>631249.7597558334</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>84967.42255583347</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>172754.3475558335</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>147754.3475558335</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>277774.3541558335</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>121150.2538558335</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>121150.2538558335</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-18776814.62506323</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,10 +6523,14 @@
         <v>-18776814.62506323</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="J186" t="n">
+        <v>3.78</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
@@ -6556,11 +6560,19 @@
         <v>-18764897.44516322</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="J187" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +6604,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7678,7 +7696,7 @@
         <v>-18226483.72596323</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7729,7 @@
         <v>-18506069.76726323</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7762,7 @@
         <v>-18509167.89396323</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7795,7 @@
         <v>-18632584.32896322</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7828,7 @@
         <v>-18632584.32896322</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7861,7 @@
         <v>-18647633.87366322</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7894,7 @@
         <v>-18888577.27566322</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7927,7 @@
         <v>-18888577.27566322</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7960,7 @@
         <v>-18888577.27566322</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7993,7 @@
         <v>-19279614.50756322</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8026,7 @@
         <v>-19279485.50756322</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8059,7 @@
         <v>-19352442.39756322</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8140,7 +8158,7 @@
         <v>-18904021.35414467</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8470,7 +8488,7 @@
         <v>-18768877.93622691</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8521,7 @@
         <v>-18918256.57592691</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8554,7 @@
         <v>-18918256.57592691</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8602,7 +8620,7 @@
         <v>-18830223.46292691</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8653,7 @@
         <v>-18830223.46292691</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8686,7 @@
         <v>-18817093.46292691</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8719,7 @@
         <v>-18590925.8024269</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8752,7 @@
         <v>-17445204.76844466</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8785,7 @@
         <v>-17445204.76844466</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9757,10 +9775,14 @@
         <v>-21968891.31014466</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="J284" t="n">
+        <v>3.84</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
@@ -9790,11 +9812,19 @@
         <v>-21968891.31014466</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>3.834</v>
+      </c>
+      <c r="J285" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +9853,19 @@
         <v>-21968891.31014466</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>3.834</v>
+      </c>
+      <c r="J286" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,10 +9894,14 @@
         <v>-21362659.04284466</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>3.834</v>
+      </c>
+      <c r="J287" t="n">
+        <v>3.834</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
@@ -9889,11 +9931,19 @@
         <v>-21362659.04284466</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="J288" t="n">
+        <v>3.834</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +9972,19 @@
         <v>-21362494.81124466</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="J289" t="n">
+        <v>3.834</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10021,10 +10079,14 @@
         <v>-21310632.49664466</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="J292" t="n">
+        <v>3.863</v>
+      </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
@@ -10057,8 +10119,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10090,8 +10158,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,10 +10194,14 @@
         <v>-21282946.87914466</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>3.899</v>
+      </c>
+      <c r="J295" t="n">
+        <v>3.899</v>
+      </c>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
@@ -10153,11 +10231,19 @@
         <v>-21279994.35224466</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>3.914</v>
+      </c>
+      <c r="J296" t="n">
+        <v>3.899</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10272,19 @@
         <v>-21276222.41284467</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>3.921</v>
+      </c>
+      <c r="J297" t="n">
+        <v>3.899</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10285,10 +10379,14 @@
         <v>-21269087.92384467</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="J300" t="n">
+        <v>3.944</v>
+      </c>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
@@ -10318,11 +10416,19 @@
         <v>-21292631.46244467</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="J301" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10457,19 @@
         <v>-21292631.46244467</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>3.921</v>
+      </c>
+      <c r="J302" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10498,19 @@
         <v>-21292503.46244467</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>3.921</v>
+      </c>
+      <c r="J303" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +10539,19 @@
         <v>-21311731.50014467</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>3.956</v>
+      </c>
+      <c r="J304" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10450,11 +10580,19 @@
         <v>-21311731.50014467</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>3.911</v>
+      </c>
+      <c r="J305" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10483,11 +10621,19 @@
         <v>-21294071.05974467</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>3.911</v>
+      </c>
+      <c r="J306" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10516,11 +10662,19 @@
         <v>-21274448.34814467</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="J307" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +10703,19 @@
         <v>-21274448.34814467</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>3.955</v>
+      </c>
+      <c r="J308" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10582,11 +10744,19 @@
         <v>-20733197.21880632</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>3.955</v>
+      </c>
+      <c r="J309" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10615,11 +10785,19 @@
         <v>-20770697.32810632</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>4</v>
+      </c>
+      <c r="J310" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +10826,19 @@
         <v>-20770697.32810632</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J311" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +10867,19 @@
         <v>-20770697.32810632</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J312" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +10908,19 @@
         <v>-20694427.32290632</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J313" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +10949,19 @@
         <v>-20629595.60380632</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>3.995</v>
+      </c>
+      <c r="J314" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +10990,19 @@
         <v>-20750877.20980632</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>3.999</v>
+      </c>
+      <c r="J315" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +11031,19 @@
         <v>-20715708.92890632</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J316" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +11072,19 @@
         <v>-20683290.20380632</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>3.999</v>
+      </c>
+      <c r="J317" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +11113,19 @@
         <v>-20683290.20380632</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>4</v>
+      </c>
+      <c r="J318" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +11154,19 @@
         <v>-20684747.85090632</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>4</v>
+      </c>
+      <c r="J319" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +11195,19 @@
         <v>-20684747.85090632</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>3.999</v>
+      </c>
+      <c r="J320" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11236,19 @@
         <v>-20684747.85090632</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>3.999</v>
+      </c>
+      <c r="J321" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11277,19 @@
         <v>-20707726.00600632</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>3.999</v>
+      </c>
+      <c r="J322" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11318,19 @@
         <v>-20707596.00600632</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J323" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11359,19 @@
         <v>-20732965.24030632</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>3.999</v>
+      </c>
+      <c r="J324" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11400,19 @@
         <v>-20732965.24030632</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="J325" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +11441,19 @@
         <v>-20732965.24030632</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="J326" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +11482,19 @@
         <v>-20732965.24030632</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="J327" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11523,19 @@
         <v>-20733134.49070632</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="J328" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11564,19 @@
         <v>-20733004.49070632</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>3.935</v>
+      </c>
+      <c r="J329" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11605,19 @@
         <v>-20735790.75260632</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>3.989</v>
+      </c>
+      <c r="J330" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +11646,19 @@
         <v>-20898513.96680632</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="J331" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +11687,19 @@
         <v>-23481983.98330632</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="J332" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11374,11 +11728,19 @@
         <v>-23481983.98330632</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="J333" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +11769,19 @@
         <v>-23481983.98330632</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="J334" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +11810,19 @@
         <v>-23481853.98330632</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="J335" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11479,9 +11857,13 @@
         <v>3.954</v>
       </c>
       <c r="J336" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="K336" t="inlineStr"/>
+        <v>3.944</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,15 +11892,17 @@
         <v>-23689682.74040632</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>3.915</v>
+      </c>
       <c r="J337" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L337" t="n">
@@ -11555,7 +11939,7 @@
         <v>3.873</v>
       </c>
       <c r="J338" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -11596,7 +11980,7 @@
         <v>3.881</v>
       </c>
       <c r="J339" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -11637,7 +12021,7 @@
         <v>3.885</v>
       </c>
       <c r="J340" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -11678,7 +12062,7 @@
         <v>3.921</v>
       </c>
       <c r="J341" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -11719,7 +12103,7 @@
         <v>3.921</v>
       </c>
       <c r="J342" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -11760,7 +12144,7 @@
         <v>3.921</v>
       </c>
       <c r="J343" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -11801,7 +12185,7 @@
         <v>3.873</v>
       </c>
       <c r="J344" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -11842,7 +12226,7 @@
         <v>3.873</v>
       </c>
       <c r="J345" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -11883,7 +12267,7 @@
         <v>3.873</v>
       </c>
       <c r="J346" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -11924,7 +12308,7 @@
         <v>3.933</v>
       </c>
       <c r="J347" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -11965,7 +12349,7 @@
         <v>3.885</v>
       </c>
       <c r="J348" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12006,7 +12390,7 @@
         <v>3.885</v>
       </c>
       <c r="J349" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12047,7 +12431,7 @@
         <v>3.923</v>
       </c>
       <c r="J350" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12088,7 +12472,7 @@
         <v>3.885</v>
       </c>
       <c r="J351" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12129,7 +12513,7 @@
         <v>3.933</v>
       </c>
       <c r="J352" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12170,7 +12554,7 @@
         <v>3.933</v>
       </c>
       <c r="J353" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12211,7 +12595,7 @@
         <v>3.933</v>
       </c>
       <c r="J354" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12252,7 +12636,7 @@
         <v>3.933</v>
       </c>
       <c r="J355" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12293,7 +12677,7 @@
         <v>3.94</v>
       </c>
       <c r="J356" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12328,11 +12712,13 @@
         <v>-24986743.01789124</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>3.997</v>
+      </c>
       <c r="J357" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12367,11 +12753,13 @@
         <v>-24997986.10299123</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>3.987</v>
+      </c>
       <c r="J358" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12412,7 +12800,7 @@
         <v>3.95</v>
       </c>
       <c r="J359" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12453,7 +12841,7 @@
         <v>3.997</v>
       </c>
       <c r="J360" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12488,11 +12876,13 @@
         <v>-17941887.30010632</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>3.997</v>
+      </c>
       <c r="J361" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12531,7 +12921,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12566,714 +12956,842 @@
         <v>-15725899.42575976</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>3.954</v>
+        <v>3.944</v>
       </c>
       <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>4.085</v>
+      </c>
+      <c r="C364" t="n">
+        <v>4.148</v>
+      </c>
+      <c r="D364" t="n">
+        <v>4.148</v>
+      </c>
+      <c r="E364" t="n">
+        <v>4.085</v>
+      </c>
+      <c r="F364" t="n">
+        <v>1469876.542928397</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-14256022.88283136</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>4.149</v>
+      </c>
+      <c r="C365" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D365" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E365" t="n">
+        <v>4.149</v>
+      </c>
+      <c r="F365" t="n">
+        <v>911217.1946</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-13344805.68823136</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>4.198</v>
+      </c>
+      <c r="C366" t="n">
+        <v>4.248</v>
+      </c>
+      <c r="D366" t="n">
+        <v>4.276</v>
+      </c>
+      <c r="E366" t="n">
+        <v>4.198</v>
+      </c>
+      <c r="F366" t="n">
+        <v>1741776.189849989</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-11603029.49838137</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>4.213</v>
+      </c>
+      <c r="C367" t="n">
+        <v>4.245</v>
+      </c>
+      <c r="D367" t="n">
+        <v>4.245</v>
+      </c>
+      <c r="E367" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F367" t="n">
+        <v>164506.579</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-11767536.07738137</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C368" t="n">
+        <v>4.241</v>
+      </c>
+      <c r="D368" t="n">
+        <v>4.241</v>
+      </c>
+      <c r="E368" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F368" t="n">
+        <v>394495.8054</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-12162031.88278137</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>4.265</v>
+      </c>
+      <c r="C369" t="n">
+        <v>4.265</v>
+      </c>
+      <c r="D369" t="n">
+        <v>4.265</v>
+      </c>
+      <c r="E369" t="n">
+        <v>4.265</v>
+      </c>
+      <c r="F369" t="n">
+        <v>110830.2625</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-12051201.62028137</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>4.266</v>
+      </c>
+      <c r="C370" t="n">
+        <v>4.266</v>
+      </c>
+      <c r="D370" t="n">
+        <v>4.266</v>
+      </c>
+      <c r="E370" t="n">
+        <v>4.266</v>
+      </c>
+      <c r="F370" t="n">
+        <v>59758.7816</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-11991442.83868137</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>4.266</v>
+      </c>
+      <c r="C371" t="n">
+        <v>4.317</v>
+      </c>
+      <c r="D371" t="n">
+        <v>4.327</v>
+      </c>
+      <c r="E371" t="n">
+        <v>4.266</v>
+      </c>
+      <c r="F371" t="n">
+        <v>2757270.435194359</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-9234172.403487012</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>4.315</v>
+      </c>
+      <c r="C372" t="n">
+        <v>4.327</v>
+      </c>
+      <c r="D372" t="n">
+        <v>4.327</v>
+      </c>
+      <c r="E372" t="n">
+        <v>4.315</v>
+      </c>
+      <c r="F372" t="n">
+        <v>40471</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-9193701.403487012</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>4.327</v>
+      </c>
+      <c r="C373" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D373" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E373" t="n">
+        <v>4.325</v>
+      </c>
+      <c r="F373" t="n">
+        <v>2647813.087955652</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-6545888.31553136</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C374" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D374" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E374" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F374" t="n">
+        <v>274811.911798909</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-6820700.227330269</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>4.367</v>
+      </c>
+      <c r="C375" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D375" t="n">
+        <v>4.377</v>
+      </c>
+      <c r="E375" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F375" t="n">
+        <v>133174.2959</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-6953874.52323027</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="C376" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="D376" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="E376" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="F376" t="n">
+        <v>115</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-6953759.52323027</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>4.345</v>
+      </c>
+      <c r="C377" t="n">
+        <v>4.345</v>
+      </c>
+      <c r="D377" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E377" t="n">
+        <v>4.345</v>
+      </c>
+      <c r="F377" t="n">
+        <v>847673.3408</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-7801432.86403027</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="C378" t="n">
+        <v>4.487</v>
+      </c>
+      <c r="D378" t="n">
+        <v>4.487</v>
+      </c>
+      <c r="E378" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="F378" t="n">
+        <v>593803.739026933</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-7207629.125003337</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>4.487</v>
+      </c>
+      <c r="C379" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D379" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E379" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F379" t="n">
+        <v>1776438.511742116</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-8984067.636745453</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C380" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D380" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E380" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F380" t="n">
+        <v>38490.712332731</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-8945576.924412722</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>4.334</v>
+      </c>
+      <c r="C381" t="n">
+        <v>4.491</v>
+      </c>
+      <c r="D381" t="n">
+        <v>4.491</v>
+      </c>
+      <c r="E381" t="n">
+        <v>4.334</v>
+      </c>
+      <c r="F381" t="n">
+        <v>884071.00779822</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-8061505.916614502</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>4.492</v>
+      </c>
+      <c r="C382" t="n">
+        <v>4.501</v>
+      </c>
+      <c r="D382" t="n">
+        <v>4.518</v>
+      </c>
+      <c r="E382" t="n">
+        <v>4.491</v>
+      </c>
+      <c r="F382" t="n">
+        <v>1197462.431641463</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-6864043.484973039</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>4.501</v>
+      </c>
+      <c r="C383" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D383" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E383" t="n">
+        <v>4.501</v>
+      </c>
+      <c r="F383" t="n">
+        <v>10262735.4652</v>
+      </c>
+      <c r="G383" t="n">
+        <v>3398691.980226961</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>4.516</v>
+      </c>
+      <c r="C384" t="n">
+        <v>4.555</v>
+      </c>
+      <c r="D384" t="n">
+        <v>4.555</v>
+      </c>
+      <c r="E384" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F384" t="n">
+        <v>3351026.617999012</v>
+      </c>
+      <c r="G384" t="n">
+        <v>6749718.598225974</v>
+      </c>
+      <c r="H384" t="n">
+        <v>2</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K384" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L363" t="n">
-        <v>1.02813100657562</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>4.085</v>
-      </c>
-      <c r="C364" t="n">
-        <v>4.148</v>
-      </c>
-      <c r="D364" t="n">
-        <v>4.148</v>
-      </c>
-      <c r="E364" t="n">
-        <v>4.085</v>
-      </c>
-      <c r="F364" t="n">
-        <v>1469876.542928397</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-14256022.88283136</v>
-      </c>
-      <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>4.149</v>
-      </c>
-      <c r="C365" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="D365" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="E365" t="n">
-        <v>4.149</v>
-      </c>
-      <c r="F365" t="n">
-        <v>911217.1946</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-13344805.68823136</v>
-      </c>
-      <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>4.198</v>
-      </c>
-      <c r="C366" t="n">
-        <v>4.248</v>
-      </c>
-      <c r="D366" t="n">
-        <v>4.276</v>
-      </c>
-      <c r="E366" t="n">
-        <v>4.198</v>
-      </c>
-      <c r="F366" t="n">
-        <v>1741776.189849989</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-11603029.49838137</v>
-      </c>
-      <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>4.213</v>
-      </c>
-      <c r="C367" t="n">
-        <v>4.245</v>
-      </c>
-      <c r="D367" t="n">
-        <v>4.245</v>
-      </c>
-      <c r="E367" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="F367" t="n">
-        <v>164506.579</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-11767536.07738137</v>
-      </c>
-      <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="C368" t="n">
-        <v>4.241</v>
-      </c>
-      <c r="D368" t="n">
-        <v>4.241</v>
-      </c>
-      <c r="E368" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="F368" t="n">
-        <v>394495.8054</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-12162031.88278137</v>
-      </c>
-      <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>4.265</v>
-      </c>
-      <c r="C369" t="n">
-        <v>4.265</v>
-      </c>
-      <c r="D369" t="n">
-        <v>4.265</v>
-      </c>
-      <c r="E369" t="n">
-        <v>4.265</v>
-      </c>
-      <c r="F369" t="n">
-        <v>110830.2625</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-12051201.62028137</v>
-      </c>
-      <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>4.266</v>
-      </c>
-      <c r="C370" t="n">
-        <v>4.266</v>
-      </c>
-      <c r="D370" t="n">
-        <v>4.266</v>
-      </c>
-      <c r="E370" t="n">
-        <v>4.266</v>
-      </c>
-      <c r="F370" t="n">
-        <v>59758.7816</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-11991442.83868137</v>
-      </c>
-      <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>4.266</v>
-      </c>
-      <c r="C371" t="n">
-        <v>4.317</v>
-      </c>
-      <c r="D371" t="n">
-        <v>4.327</v>
-      </c>
-      <c r="E371" t="n">
-        <v>4.266</v>
-      </c>
-      <c r="F371" t="n">
-        <v>2757270.435194359</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-9234172.403487012</v>
-      </c>
-      <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>4.315</v>
-      </c>
-      <c r="C372" t="n">
-        <v>4.327</v>
-      </c>
-      <c r="D372" t="n">
-        <v>4.327</v>
-      </c>
-      <c r="E372" t="n">
-        <v>4.315</v>
-      </c>
-      <c r="F372" t="n">
-        <v>40471</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-9193701.403487012</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>4.327</v>
-      </c>
-      <c r="C373" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="D373" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="E373" t="n">
-        <v>4.325</v>
-      </c>
-      <c r="F373" t="n">
-        <v>2647813.087955652</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-6545888.31553136</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C374" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D374" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E374" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F374" t="n">
-        <v>274811.911798909</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-6820700.227330269</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>4.367</v>
-      </c>
-      <c r="C375" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="D375" t="n">
-        <v>4.377</v>
-      </c>
-      <c r="E375" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="F375" t="n">
-        <v>133174.2959</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-6953874.52323027</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="C376" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="D376" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="E376" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="F376" t="n">
-        <v>115</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-6953759.52323027</v>
-      </c>
-      <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>4.345</v>
-      </c>
-      <c r="C377" t="n">
-        <v>4.345</v>
-      </c>
-      <c r="D377" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E377" t="n">
-        <v>4.345</v>
-      </c>
-      <c r="F377" t="n">
-        <v>847673.3408</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-7801432.86403027</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>4.375</v>
-      </c>
-      <c r="C378" t="n">
-        <v>4.487</v>
-      </c>
-      <c r="D378" t="n">
-        <v>4.487</v>
-      </c>
-      <c r="E378" t="n">
-        <v>4.375</v>
-      </c>
-      <c r="F378" t="n">
-        <v>593803.739026933</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-7207629.125003337</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>4.487</v>
-      </c>
-      <c r="C379" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D379" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="E379" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F379" t="n">
-        <v>1776438.511742116</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-8984067.636745453</v>
-      </c>
-      <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C380" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D380" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E380" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F380" t="n">
-        <v>38490.712332731</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-8945576.924412722</v>
-      </c>
-      <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>4.334</v>
-      </c>
-      <c r="C381" t="n">
-        <v>4.491</v>
-      </c>
-      <c r="D381" t="n">
-        <v>4.491</v>
-      </c>
-      <c r="E381" t="n">
-        <v>4.334</v>
-      </c>
-      <c r="F381" t="n">
-        <v>884071.00779822</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-8061505.916614502</v>
-      </c>
-      <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>4.492</v>
-      </c>
-      <c r="C382" t="n">
-        <v>4.501</v>
-      </c>
-      <c r="D382" t="n">
-        <v>4.518</v>
-      </c>
-      <c r="E382" t="n">
-        <v>4.491</v>
-      </c>
-      <c r="F382" t="n">
-        <v>1197462.431641463</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-6864043.484973039</v>
-      </c>
-      <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>4.501</v>
-      </c>
-      <c r="C383" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="D383" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="E383" t="n">
-        <v>4.501</v>
-      </c>
-      <c r="F383" t="n">
-        <v>10262735.4652</v>
-      </c>
-      <c r="G383" t="n">
-        <v>3398691.980226961</v>
-      </c>
-      <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>4.516</v>
-      </c>
-      <c r="C384" t="n">
-        <v>4.555</v>
-      </c>
-      <c r="D384" t="n">
-        <v>4.555</v>
-      </c>
-      <c r="E384" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F384" t="n">
-        <v>3351026.617999012</v>
-      </c>
-      <c r="G384" t="n">
-        <v>6749718.598225974</v>
-      </c>
-      <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
+        <v>1.149918864097363</v>
+      </c>
+      <c r="M384" t="n">
+        <v>1.200671704450042</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -13298,7 +13816,7 @@
         <v>9840384.872225974</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13331,7 +13849,7 @@
         <v>9799014.018045444</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13364,7 +13882,7 @@
         <v>9271669.567745443</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13397,7 +13915,7 @@
         <v>9271669.567745443</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13430,7 +13948,7 @@
         <v>9058106.060745444</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13463,7 +13981,7 @@
         <v>8819409.275545444</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13496,7 +14014,7 @@
         <v>8919409.275545444</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13529,7 +14047,7 @@
         <v>9116108.584045444</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13562,7 +14080,7 @@
         <v>9202952.659245444</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13595,7 +14113,7 @@
         <v>9325809.38379138</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13628,7 +14146,7 @@
         <v>9477708.744745445</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13661,7 +14179,7 @@
         <v>8736270.11329951</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13694,7 +14212,7 @@
         <v>8856411.93009951</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13727,7 +14245,7 @@
         <v>8509659.328599509</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13760,7 +14278,7 @@
         <v>8475249.813399509</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14057,7 +14575,7 @@
         <v>7009520.600899507</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14090,7 +14608,7 @@
         <v>7009520.600899507</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14123,7 +14641,7 @@
         <v>7624932.083499507</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14156,7 +14674,7 @@
         <v>5775638.432699507</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15641,7 +16159,7 @@
         <v>7688275.897599508</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15674,7 +16192,7 @@
         <v>7688275.897599508</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15707,7 +16225,7 @@
         <v>7717949.420599508</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15740,7 +16258,7 @@
         <v>7355558.778799508</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15872,7 +16390,7 @@
         <v>7355981.748799508</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15905,7 +16423,7 @@
         <v>7271579.146799508</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15938,7 +16456,7 @@
         <v>7257158.461799508</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15971,7 +16489,7 @@
         <v>7098454.638999508</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16004,7 +16522,7 @@
         <v>6729323.112299507</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16037,7 +16555,7 @@
         <v>6798017.250599507</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16070,7 +16588,7 @@
         <v>6798017.250599507</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16103,7 +16621,7 @@
         <v>6798137.250599507</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16136,7 +16654,7 @@
         <v>6798137.250599507</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16169,7 +16687,7 @@
         <v>6798137.250599507</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
